--- a/Code/Summary Statistics Table_Figure_3.xlsx
+++ b/Code/Summary Statistics Table_Figure_3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -480,56 +480,56 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>CMA</t>
+          <t>AHRSMAIN</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Nine largest CMAs</t>
+          <t>Actual hours worked per week at main job</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Qualitative</t>
+          <t>Quantitative</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Nominal</t>
+          <t>Continuous</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>EDUC</t>
+          <t>ATOTHRS</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Highest educational attainment</t>
+          <t>Actual hours worked per week at all jobs</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Qualitative</t>
+          <t>Quantitative</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Ordinal</t>
+          <t>Continuous</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ESTSIZE</t>
+          <t>CMA</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Establishment size</t>
+          <t>Nine largest CMAs</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -539,41 +539,41 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Ordinal</t>
+          <t>Nominal</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HRLYEARN</t>
+          <t>COWMAIN</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Usual hourly wages</t>
+          <t>Class of worker, main job</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Quantitative</t>
+          <t>Qualitative</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Continuous</t>
+          <t>Nominal</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IMMIG</t>
+          <t>EDUC</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Immigrant status</t>
+          <t>Highest educational attainment</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -583,19 +583,19 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Nominal</t>
+          <t>Ordinal</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>MARSTAT</t>
+          <t>EFAMTYPE</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Marital status of respondent</t>
+          <t>Type of economic family</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -612,12 +612,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>NAICS_21</t>
+          <t>ESTSIZE</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Industry of main job</t>
+          <t>Establishment size</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -627,41 +627,41 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Nominal</t>
+          <t>Ordinal</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>PROV</t>
+          <t>FINALWT</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Province</t>
+          <t>Standard final weight</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Qualitative</t>
+          <t>Quantitative</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Nominal</t>
+          <t>Continuous</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>SEX</t>
+          <t>FIRMSIZE</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Sex of respondent</t>
+          <t>Firm size</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -671,29 +671,1107 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Nominal</t>
+          <t>Ordinal</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>FTPTMAIN</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Full- or part-time status at main or only job</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Qualitative</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Nominal</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>HRLYEARN</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Usual hourly wages</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Quantitative</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Continuous</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>IMMIG</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Immigrant status</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Qualitative</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Nominal</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>LFSSTAT</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Labour force status</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Qualitative</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Nominal</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>MARSTAT</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Marital status of respondent</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Qualitative</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Nominal</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>MJH</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Single or multiple jobholder</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Qualitative</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Nominal</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>NAICS_21</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Industry of main job</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Qualitative</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Nominal</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>NOC_10</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Occupation at main job (noc_10)</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Qualitative</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Nominal</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>NOC_43</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Occupation at main job (noc_43)</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Qualitative</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Nominal</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>PERMTEMP</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Job permanency</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Qualitative</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Nominal</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>PROV</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Province</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Qualitative</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Nominal</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>REC_NUM</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Order of record in file</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Qualitative</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Nominal</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>SCHOOLN</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Current student status</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Qualitative</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Nominal</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Sex of respondent</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Qualitative</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Nominal</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>SURVMNTH</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Survey month</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Qualitative</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Ordinal</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>SURVYEAR</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Survey year</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Qualitative</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Ordinal</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>TENURE</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Job tenure with current employer</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Quantitative</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Discrete</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
           <t>UHRSMAIN</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B29" t="inlineStr">
         <is>
           <t>Usual hours worked per week at main job</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="C29" t="inlineStr">
         <is>
           <t>Quantitative</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="D29" t="inlineStr">
         <is>
           <t>Continuous</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>UNION</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Union status</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Qualitative</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Nominal</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>UTOTHRS</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Usual hours worked per week at all jobs</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Quantitative</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Continuous</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>HRSAWAY</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Hours away from work, part-week absence only</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Quantitative</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Continuous</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>PAIDOT</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Paid overtime hours in reference week</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Quantitative</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Continuous</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>UNPAIDOT</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Unpaid overtime hours in reference week</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Quantitative</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Continuous</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>XTRAHRS</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Number of overtime or extra hours worked</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Quantitative</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Continuous</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>AGYOWNK</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Age of youngest child</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Qualitative</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Ordinal</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>AGE_6</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Age in 2 and 3 year groups, 15 to 29</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Qualitative</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Ordinal</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>YAWAY</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Reason for part-week absence</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Qualitative</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Nominal</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>PAYAWAY</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Paid for time off, full-week absence only</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Qualitative</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Nominal</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>WKSAWAY</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Number of weeks absent from work</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Qualitative</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Nominal</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>YABSENT</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Reason of absence, full week</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Qualitative</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Nominal</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>AVAILABL</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Availability during the reference week</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Qualitative</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Nominal</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>DURJLESS</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Duration of joblessness</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Qualitative</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Discrete</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>DURUNEMP</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Duration of unemployment</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Qualitative</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Discrete</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>EVERWORK</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Identifies if a person has worked in the last year</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Qualitative</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Nominal</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>FLOWUNEM</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Flows into unemployment</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Qualitative</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Nominal</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>FTPTLAST</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Full- or part-time status of last job</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Qualitative</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Nominal</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>LKANSADS</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Unemployed, placed or answered ads</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Qualitative</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Nominal</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>LKATADS</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Unemployed, looked at job ads</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Qualitative</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Nominal</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>LKEMPLOY</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Unemployed, checked with employers directly</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Qualitative</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Nominal</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>LKOTHERN</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Unemployed, other methods</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Qualitative</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Nominal</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>LKPUBAG</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Unemployed, used public employment agency</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Qualitative</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Nominal</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>LKRELS</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Unemployed, checked with friends or relatives</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Qualitative</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Nominal</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>PREVTEN</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Job tenure with previous employer</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Quantitative</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Discrete</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>PRIORACT</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Main activity before started looking for work</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Qualitative</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Nominal</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>TLOLOOK</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Temporary layoff, looked for work during the last four weeks</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Qualitative</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Nominal</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>UNEMFTPT</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Job seekers by type of work sought and temporary layoffs by work status of last job</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Qualitative</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Nominal</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>WHYLEFTN</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Reason for leaving job during previous year (whyleftn)</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Qualitative</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Nominal</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>WHYLEFTO</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Reason for leaving job during previous year (whylefto)</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Qualitative</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Nominal</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>WHYPT</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Reason for part-time work</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Qualitative</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Nominal</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>YNOLOOK</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Reason for not looking for work during the reference week</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Qualitative</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Nominal</t>
         </is>
       </c>
     </row>
